--- a/src/app/languages/en.xlsx
+++ b/src/app/languages/en.xlsx
@@ -440,7 +440,7 @@
         <v>activeFamilies</v>
       </c>
       <c r="B6" t="str">
-        <v>activity</v>
+        <v>Active</v>
       </c>
       <c r="C6" t="str">
         <v>פעילות</v>
